--- a/SR_SB_VEG_Traits_Dataset.xlsx
+++ b/SR_SB_VEG_Traits_Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Desktop/PhD Research/Seed Bank 2020/Chapter_2.Seed_Bank_Seed Rain_and_Aboveground_Vegetation /Traits and Species Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/SR---New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD87FE-B96A-EE4F-8519-9B50533DA7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D718BD-A5CF-F646-8B86-6B579A051FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,54 +1406,6 @@
     <t>Baptisia alba var. macrophylla</t>
   </si>
   <si>
-    <t>Erigeron spp.</t>
-  </si>
-  <si>
-    <t>Eleocharis  spp.</t>
-  </si>
-  <si>
-    <t>Eleocharis  spp. 1</t>
-  </si>
-  <si>
-    <t>Cerastium spp.</t>
-  </si>
-  <si>
-    <t>Cardamine spp.</t>
-  </si>
-  <si>
-    <t>Agalinis spp.</t>
-  </si>
-  <si>
-    <t>Desmodium spp.</t>
-  </si>
-  <si>
-    <t>Eupatorium spp.</t>
-  </si>
-  <si>
-    <t>Juncus spp.</t>
-  </si>
-  <si>
-    <t>Melilotus spp.</t>
-  </si>
-  <si>
-    <t>Polygala spp.</t>
-  </si>
-  <si>
-    <t>Rubus spp.</t>
-  </si>
-  <si>
-    <t>Setaria spp.</t>
-  </si>
-  <si>
-    <t>Symphyotrichum spp.</t>
-  </si>
-  <si>
-    <t>Veronica spp.</t>
-  </si>
-  <si>
-    <t>Vernonia spp.</t>
-  </si>
-  <si>
     <t>Monarda fistulosa subsp. Fistulosa</t>
   </si>
   <si>
@@ -1604,12 +1556,6 @@
     <t>HELSPP</t>
   </si>
   <si>
-    <t>Helianthus spp.</t>
-  </si>
-  <si>
-    <t>Cornus spp.</t>
-  </si>
-  <si>
     <t>JUNBRA</t>
   </si>
   <si>
@@ -1655,9 +1601,6 @@
     <t>LIASPP</t>
   </si>
   <si>
-    <t>Liatris spp.</t>
-  </si>
-  <si>
     <t>MUHGLA</t>
   </si>
   <si>
@@ -1721,9 +1664,6 @@
     <t>SCISPP</t>
   </si>
   <si>
-    <t>Scirpus spp.</t>
-  </si>
-  <si>
     <t>Senna marilandica</t>
   </si>
   <si>
@@ -1889,24 +1829,9 @@
     <t>Liatris squarrosa</t>
   </si>
   <si>
-    <t>Muhlenbergia spp.</t>
-  </si>
-  <si>
     <t>Trifolium repens</t>
   </si>
   <si>
-    <t>Viola spp.</t>
-  </si>
-  <si>
-    <t>Oenothera spp.</t>
-  </si>
-  <si>
-    <t>Rosa spp.</t>
-  </si>
-  <si>
-    <t>Sisyrinchium spp.</t>
-  </si>
-  <si>
     <t>AGRGIG</t>
   </si>
   <si>
@@ -2381,9 +2306,6 @@
     <t>Sunflowers</t>
   </si>
   <si>
-    <t>Cyperus spp</t>
-  </si>
-  <si>
     <t>Nutsedges</t>
   </si>
   <si>
@@ -2430,9 +2352,6 @@
   </si>
   <si>
     <t>Phylogeny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentiana spp. </t>
   </si>
   <si>
     <t>Cold_Stratification_Days</t>
@@ -2553,6 +2472,87 @@
   </si>
   <si>
     <t>pilosum, lanceolatum, ericoides, praeltum, + more; average mass taken from all known Symphyotrichum species with reported seed masses. (except for SYMNOV)</t>
+  </si>
+  <si>
+    <t>Agalinis sp.</t>
+  </si>
+  <si>
+    <t>Cardamine sp.</t>
+  </si>
+  <si>
+    <t>Cerastium sp.</t>
+  </si>
+  <si>
+    <t>Cyperus sp.</t>
+  </si>
+  <si>
+    <t>Cornus sp.</t>
+  </si>
+  <si>
+    <t>Desmodium sp.</t>
+  </si>
+  <si>
+    <t>Eleocharis  sp.</t>
+  </si>
+  <si>
+    <t>Eleocharis  sp. 1</t>
+  </si>
+  <si>
+    <t>Erigeron sp.</t>
+  </si>
+  <si>
+    <t>Eupatorium sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentiana sp. </t>
+  </si>
+  <si>
+    <t>Helianthus sp.</t>
+  </si>
+  <si>
+    <t>Juncus sp.</t>
+  </si>
+  <si>
+    <t>Liatris sp.</t>
+  </si>
+  <si>
+    <t>Melilotus sp.</t>
+  </si>
+  <si>
+    <t>Muhlenbergia sp.</t>
+  </si>
+  <si>
+    <t>Oenothera sp.</t>
+  </si>
+  <si>
+    <t>Polygala sp.</t>
+  </si>
+  <si>
+    <t>Rosa sp.</t>
+  </si>
+  <si>
+    <t>Rubus sp.</t>
+  </si>
+  <si>
+    <t>Scirpus sp.</t>
+  </si>
+  <si>
+    <t>Setaria sp.</t>
+  </si>
+  <si>
+    <t>Sisyrinchium sp.</t>
+  </si>
+  <si>
+    <t>Symphyotrichum sp.</t>
+  </si>
+  <si>
+    <t>Veronica sp.</t>
+  </si>
+  <si>
+    <t>Vernonia sp.</t>
+  </si>
+  <si>
+    <t>Viola sp.</t>
   </si>
 </sst>
 </file>
@@ -2931,8 +2931,8 @@
   <dimension ref="A1:AM1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2979,16 +2979,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>453</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -3009,34 +3009,34 @@
         <v>9</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>445</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>799</v>
+        <v>772</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>801</v>
+        <v>774</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>10</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>15</v>
@@ -3081,7 +3081,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>18</v>
@@ -3098,7 +3098,7 @@
       <c r="P2" s="19"/>
       <c r="R2" s="5"/>
       <c r="S2" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>15</v>
@@ -3183,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>323</v>
@@ -3198,13 +3198,13 @@
         <v>3.5513866666666657E-2</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
@@ -3252,10 +3252,10 @@
       </c>
       <c r="P5" s="19"/>
       <c r="R5" s="8" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T5" s="18">
         <v>0</v>
@@ -3271,18 +3271,18 @@
         <v>30</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>15</v>
@@ -3300,7 +3300,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>19</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
@@ -3321,7 +3321,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>461</v>
+        <v>811</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>15</v>
@@ -3391,7 +3391,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>19</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T8" s="17">
         <v>60</v>
@@ -3421,13 +3421,13 @@
     </row>
     <row r="9" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>15</v>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -3565,7 +3565,7 @@
       <c r="P11" s="19"/>
       <c r="R11" s="5"/>
       <c r="S11" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z11" s="7" t="s">
         <v>39</v>
@@ -3576,7 +3576,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>44</v>
@@ -3614,7 +3614,7 @@
       <c r="P12" s="19"/>
       <c r="R12" s="5"/>
       <c r="S12" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>47</v>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="R13" s="8"/>
       <c r="S13" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="14" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>15</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="R14" s="5"/>
       <c r="Z14" s="7" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="13" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T15" s="18">
         <v>10</v>
@@ -3778,7 +3778,7 @@
         <v>30</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T17" s="17">
         <v>0</v>
@@ -3886,18 +3886,18 @@
         <v>30</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>15</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>18</v>
@@ -3978,10 +3978,10 @@
         <v>5.6422857000000002E-3</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T19" s="17">
         <v>30</v>
@@ -3996,7 +3996,7 @@
         <v>30</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -4042,7 +4042,7 @@
       <c r="P20" s="19"/>
       <c r="R20" s="5"/>
       <c r="S20" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T20" s="17">
         <v>10</v>
@@ -4057,18 +4057,18 @@
         <v>30</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>15</v>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T21" s="17">
         <v>10</v>
@@ -4111,18 +4111,18 @@
         <v>15</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>15</v>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T22" s="17">
         <v>10</v>
@@ -4168,7 +4168,7 @@
         <v>30</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4217,7 +4217,7 @@
       <c r="P23" s="19"/>
       <c r="R23" s="5"/>
       <c r="S23" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
@@ -4282,7 +4282,7 @@
         <v>15</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
       <c r="P25" s="19"/>
       <c r="R25" s="5"/>
       <c r="S25" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T25" s="17">
         <v>60</v>
@@ -4340,7 +4340,7 @@
         <v>15</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4384,10 +4384,10 @@
         <v>2.6826309523809522E-4</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T26" s="17">
         <v>60</v>
@@ -4402,7 +4402,7 @@
         <v>30</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4448,7 +4448,7 @@
       <c r="P27" s="19"/>
       <c r="R27" s="5"/>
       <c r="S27" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -4460,13 +4460,13 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>15</v>
@@ -4481,10 +4481,10 @@
         <v>3</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>26</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,7 +4543,7 @@
       <c r="P29" s="19"/>
       <c r="R29" s="5"/>
       <c r="S29" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -4605,7 +4605,7 @@
         <v>30</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>30</v>
       </c>
       <c r="Z31" s="7" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>15</v>
       </c>
       <c r="Z33" s="7" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4767,7 +4767,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>460</v>
+        <v>812</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>104</v>
@@ -4859,13 +4859,13 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>15</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -4905,13 +4905,13 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>15</v>
@@ -4944,13 +4944,13 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>15</v>
@@ -4993,10 +4993,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>459</v>
+        <v>813</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>30</v>
@@ -5103,7 +5103,7 @@
         <v>30</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -5215,18 +5215,18 @@
         <v>30</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>15</v>
@@ -5241,10 +5241,10 @@
         <v>7</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>26</v>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="R44" s="8"/>
       <c r="S44" s="13" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T45" s="17">
         <v>30</v>
@@ -5378,7 +5378,7 @@
         <v>30</v>
       </c>
       <c r="Z45" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T46" s="17">
         <v>60</v>
@@ -5438,18 +5438,18 @@
         <v>30</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>523</v>
+        <v>815</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
@@ -5464,7 +5464,7 @@
         <v>31</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>323</v>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T48" s="17">
         <v>60</v>
@@ -5537,7 +5537,7 @@
         <v>30</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5594,7 +5594,7 @@
         <v>15</v>
       </c>
       <c r="Z49" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5692,13 +5692,13 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         <v>30</v>
       </c>
       <c r="Y52" s="7" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,13 +5786,13 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>15</v>
@@ -5835,7 +5835,7 @@
         <v>30</v>
       </c>
       <c r="Z54" s="7" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="R55" s="5"/>
       <c r="S55" s="15" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -5892,13 +5892,13 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>15</v>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T56" s="17">
         <v>0</v>
@@ -5944,18 +5944,18 @@
         <v>30</v>
       </c>
       <c r="Z56" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>15</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="R57" s="5"/>
       <c r="S57" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T57" s="17">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>15</v>
       </c>
       <c r="Z57" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
         <v>151</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>462</v>
+        <v>816</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>152</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -6163,7 +6163,7 @@
         <v>30</v>
       </c>
       <c r="Z60" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="R61" s="8"/>
       <c r="S61" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -6226,13 +6226,13 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>15</v>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -6272,13 +6272,13 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>15</v>
@@ -6293,7 +6293,7 @@
         <v>31</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>18</v>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T65" s="17">
         <v>90</v>
@@ -6428,7 +6428,7 @@
         <v>30</v>
       </c>
       <c r="Z65" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6436,7 +6436,7 @@
         <v>167</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>457</v>
+        <v>817</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>168</v>
@@ -6484,7 +6484,7 @@
         <v>170</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>458</v>
+        <v>818</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>168</v>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>15</v>
@@ -6571,13 +6571,13 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>15</v>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T69" s="17">
         <v>0</v>
@@ -6623,18 +6623,18 @@
         <v>30</v>
       </c>
       <c r="Z69" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>15</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T70" s="17">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>30</v>
       </c>
       <c r="Z70" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="R71" s="8"/>
       <c r="S71" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T71" s="18">
         <v>0</v>
@@ -6742,7 +6742,7 @@
       <c r="W71" s="18"/>
       <c r="X71" s="13"/>
       <c r="Z71" s="7" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6792,13 +6792,13 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>15</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="X73" s="15" t="s">
         <v>30</v>
@@ -6840,7 +6840,7 @@
         <v>178</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>456</v>
+        <v>819</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>179</v>
@@ -6889,13 +6889,13 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>15</v>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="R76" s="5"/>
       <c r="S76" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="R77" s="5"/>
       <c r="S77" s="15" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="T77" s="17">
         <v>60</v>
@@ -7038,18 +7038,18 @@
         <v>30</v>
       </c>
       <c r="Z77" s="7" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>15</v>
@@ -7092,7 +7092,7 @@
         <v>30</v>
       </c>
       <c r="Z78" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="R79" s="5"/>
       <c r="S79" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T79" s="17">
         <v>30</v>
@@ -7152,18 +7152,18 @@
         <v>30</v>
       </c>
       <c r="Z79" s="7" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>15</v>
@@ -7194,18 +7194,18 @@
       </c>
       <c r="R80" s="5"/>
       <c r="Z80" s="7" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>15</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="R81" s="5"/>
       <c r="S81" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T81" s="17">
         <v>30</v>
@@ -7251,18 +7251,18 @@
         <v>30</v>
       </c>
       <c r="Z81" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>15</v>
@@ -7308,7 +7308,7 @@
         <v>30</v>
       </c>
       <c r="Z82" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7316,7 +7316,7 @@
         <v>190</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>463</v>
+        <v>820</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>191</v>
@@ -7415,7 +7415,7 @@
         <v>30</v>
       </c>
       <c r="Z84" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7521,18 +7521,18 @@
         <v>15</v>
       </c>
       <c r="Z86" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>15</v>
@@ -7575,7 +7575,7 @@
         <v>30</v>
       </c>
       <c r="Z87" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7622,7 +7622,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X88" s="15" t="s">
         <v>30</v>
@@ -7636,7 +7636,7 @@
         <v>203</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>204</v>
@@ -7681,13 +7681,13 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>15</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="R90" s="5"/>
       <c r="S90" s="15" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="T90" s="17">
         <v>60</v>
@@ -7733,18 +7733,18 @@
         <v>30</v>
       </c>
       <c r="Z90" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>15</v>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="R91" s="5"/>
       <c r="S91" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T91" s="17">
         <v>60</v>
@@ -7790,7 +7790,7 @@
         <v>30</v>
       </c>
       <c r="Z91" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7798,7 +7798,7 @@
         <v>205</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>206</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="R93" s="5"/>
       <c r="S93" s="15" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="T93" s="17">
         <v>90</v>
@@ -7900,18 +7900,18 @@
         <v>15</v>
       </c>
       <c r="Z93" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>15</v>
@@ -7948,7 +7948,7 @@
         <v>15</v>
       </c>
       <c r="Z94" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="R95" s="5"/>
       <c r="S95" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T95" s="17">
         <v>30</v>
@@ -8008,7 +8008,7 @@
         <v>30</v>
       </c>
       <c r="Z95" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T96" s="17">
         <v>30</v>
@@ -8068,18 +8068,18 @@
         <v>30</v>
       </c>
       <c r="Z96" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>522</v>
+        <v>822</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>30</v>
@@ -8113,7 +8113,7 @@
         <v>30</v>
       </c>
       <c r="Y97" s="7" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="R98" s="5"/>
       <c r="S98" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z98" s="7" t="s">
         <v>39</v>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="R99" s="5"/>
       <c r="S99" s="15" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="X99" s="15" t="s">
         <v>30</v>
@@ -8269,7 +8269,7 @@
         <v>30</v>
       </c>
       <c r="Z100" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="R101" s="5"/>
       <c r="S101" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
@@ -8326,13 +8326,13 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>15</v>
@@ -8365,13 +8365,13 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>15</v>
@@ -8414,18 +8414,18 @@
         <v>30</v>
       </c>
       <c r="Z103" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>15</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="R104" s="5"/>
       <c r="S104" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8467,7 +8467,7 @@
         <v>235</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>464</v>
+        <v>823</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>236</v>
@@ -8517,13 +8517,13 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>15</v>
@@ -8538,7 +8538,7 @@
         <v>2</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>323</v>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="R107" s="5"/>
       <c r="S107" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T107" s="17">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>30</v>
       </c>
       <c r="Z107" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8676,13 +8676,13 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>15</v>
@@ -8722,13 +8722,13 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>15</v>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="R110" s="5"/>
       <c r="S110" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
@@ -8771,13 +8771,13 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>15</v>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="R111" s="5"/>
       <c r="S111" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
@@ -8820,13 +8820,13 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>15</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="R112" s="5"/>
       <c r="S112" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="R113" s="5"/>
       <c r="S113" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X113" s="15" t="s">
         <v>30</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="R114" s="8"/>
       <c r="S114" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T114" s="17">
         <v>10</v>
@@ -8984,7 +8984,7 @@
         <v>30</v>
       </c>
       <c r="Z114" s="7" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9041,13 +9041,13 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>15</v>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="R117" s="5"/>
       <c r="S117" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T117" s="17">
         <v>10</v>
@@ -9129,7 +9129,7 @@
         <v>15</v>
       </c>
       <c r="Z117" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9183,13 +9183,13 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>15</v>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="R119" s="5"/>
       <c r="S119" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T119" s="17">
         <v>60</v>
@@ -9232,7 +9232,7 @@
         <v>15</v>
       </c>
       <c r="Z119" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9240,7 +9240,7 @@
         <v>261</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>262</v>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="R120" s="5"/>
       <c r="S120" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T120" s="17">
         <v>60</v>
@@ -9292,18 +9292,18 @@
         <v>30</v>
       </c>
       <c r="Z120" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>539</v>
+        <v>824</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>30</v>
@@ -9342,7 +9342,7 @@
         <v>263</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>264</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="R122" s="5"/>
       <c r="S122" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T122" s="17">
         <v>30</v>
@@ -9394,7 +9394,7 @@
         <v>30</v>
       </c>
       <c r="Z122" s="10" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="R123" s="5"/>
       <c r="S123" s="15" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
       <c r="T123" s="17">
         <v>60</v>
@@ -9454,7 +9454,7 @@
         <v>30</v>
       </c>
       <c r="Z123" s="7" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="R124" s="5"/>
       <c r="S124" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T124" s="17">
         <v>0</v>
@@ -9511,7 +9511,7 @@
         <v>30</v>
       </c>
       <c r="Z124" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
         <v>30</v>
       </c>
       <c r="Z126" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="R127" s="5"/>
       <c r="S127" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
@@ -9687,7 +9687,7 @@
         <v>281</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>465</v>
+        <v>825</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>282</v>
@@ -9729,7 +9729,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
       <c r="S128" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="R129" s="5"/>
       <c r="S129" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T129" s="5"/>
       <c r="U129" s="5"/>
@@ -9805,7 +9805,7 @@
         <v>291</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>292</v>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="R130" s="5"/>
       <c r="S130" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T130" s="17">
         <v>0</v>
@@ -9857,18 +9857,18 @@
         <v>30</v>
       </c>
       <c r="Z130" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>15</v>
@@ -9898,13 +9898,13 @@
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>617</v>
+        <v>826</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>30</v>
@@ -10027,7 +10027,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
       <c r="S134" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T134" s="17">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>302</v>
       </c>
       <c r="Z134" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10092,13 +10092,13 @@
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>620</v>
+        <v>827</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>30</v>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="R138" s="5"/>
       <c r="S138" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X138" s="15" t="s">
         <v>30</v>
@@ -10236,13 +10236,13 @@
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>15</v>
@@ -10273,18 +10273,18 @@
       </c>
       <c r="R139" s="5"/>
       <c r="S139" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>15</v>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="R140" s="5"/>
       <c r="S140" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T140" s="17">
         <v>0</v>
@@ -10330,18 +10330,18 @@
         <v>30</v>
       </c>
       <c r="Z140" s="7" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>15</v>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="R141" s="5"/>
       <c r="S141" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T141" s="17">
         <v>60</v>
@@ -10387,7 +10387,7 @@
         <v>30</v>
       </c>
       <c r="Z141" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="R142" s="5"/>
       <c r="S142" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T142" s="17">
         <v>30</v>
@@ -10453,7 +10453,7 @@
         <v>314</v>
       </c>
       <c r="Z142" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="R144" s="5"/>
       <c r="S144" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="Z144" s="7" t="s">
         <v>34</v>
@@ -10558,13 +10558,13 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>15</v>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="R146" s="5"/>
       <c r="S146" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z146" s="7" t="s">
         <v>34</v>
@@ -10648,13 +10648,13 @@
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>15</v>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="R148" s="5"/>
       <c r="S148" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
@@ -10742,13 +10742,13 @@
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>15</v>
@@ -10787,7 +10787,7 @@
         <v>330</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>466</v>
+        <v>828</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>331</v>
@@ -10831,13 +10831,13 @@
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>15</v>
@@ -10873,13 +10873,13 @@
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>15</v>
@@ -10894,7 +10894,7 @@
         <v>2</v>
       </c>
       <c r="K152" s="7" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="L152" s="7" t="s">
         <v>323</v>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="R152" s="5"/>
       <c r="S152" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="X152" s="15" t="s">
         <v>30</v>
@@ -10918,13 +10918,13 @@
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>15</v>
@@ -10939,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="L153" s="7" t="s">
         <v>18</v>
@@ -10948,31 +10948,31 @@
         <v>19</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
       <c r="O153" s="20">
         <v>1.4924E-4</v>
       </c>
       <c r="R153" s="5"/>
       <c r="S153" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X153" s="15" t="s">
         <v>30</v>
       </c>
       <c r="Y153" s="7" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>15</v>
@@ -11060,7 +11060,7 @@
         <v>30</v>
       </c>
       <c r="Z155" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="R156" s="5"/>
       <c r="S156" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T156" s="17">
         <v>0</v>
@@ -11123,18 +11123,18 @@
         <v>30</v>
       </c>
       <c r="Z156" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>15</v>
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="7" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
       <c r="L157" s="7" t="s">
         <v>18</v>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="R158" s="5"/>
       <c r="S158" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T158" s="17">
         <v>30</v>
@@ -11225,18 +11225,18 @@
         <v>30</v>
       </c>
       <c r="Z158" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>15</v>
@@ -11251,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="K159" s="7" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>323</v>
@@ -11269,13 +11269,13 @@
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>15</v>
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="L160" s="7" t="s">
         <v>323</v>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="R160" s="5"/>
       <c r="S160" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="X160" s="15" t="s">
         <v>30</v>
@@ -11314,13 +11314,13 @@
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>15</v>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="R161" s="5"/>
       <c r="S161" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T161" s="17">
         <v>150</v>
@@ -11363,18 +11363,18 @@
         <v>15</v>
       </c>
       <c r="Z161" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>621</v>
+        <v>829</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>30</v>
@@ -11413,7 +11413,7 @@
         <v>343</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>467</v>
+        <v>830</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>344</v>
@@ -11465,7 +11465,7 @@
         <v>347</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>348</v>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="R164" s="5"/>
       <c r="S164" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T164" s="17">
         <v>30</v>
@@ -11520,7 +11520,7 @@
         <v>30</v>
       </c>
       <c r="Z164" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="R165" s="5"/>
       <c r="S165" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T165" s="17">
         <v>30</v>
@@ -11580,7 +11580,7 @@
         <v>30</v>
       </c>
       <c r="Z165" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="R166" s="5"/>
       <c r="S166" s="15" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
@@ -11692,7 +11692,7 @@
         <v>15</v>
       </c>
       <c r="Z167" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="R168" s="5"/>
       <c r="S168" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T168" s="17">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>30</v>
       </c>
       <c r="Z168" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11851,18 +11851,18 @@
         <v>30</v>
       </c>
       <c r="Z170" s="7" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>561</v>
+        <v>831</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>30</v>
@@ -11946,13 +11946,13 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>15</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="R173" s="5"/>
       <c r="S173" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T173" s="17">
         <v>10</v>
@@ -11995,18 +11995,18 @@
         <v>15</v>
       </c>
       <c r="Z173" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>15</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="R174" s="5"/>
       <c r="S174" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T174" s="5"/>
       <c r="U174" s="5"/>
@@ -12052,13 +12052,13 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>15</v>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="R175" s="5"/>
       <c r="S175" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T175" s="5"/>
       <c r="U175" s="5"/>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="R176" s="5"/>
       <c r="S176" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z176" s="7" t="s">
         <v>39</v>
@@ -12149,7 +12149,7 @@
         <v>373</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>468</v>
+        <v>832</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>374</v>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="R178" s="5"/>
       <c r="S178" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z178" s="7" t="s">
         <v>71</v>
@@ -12254,7 +12254,7 @@
         <v>379</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>380</v>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="R179" s="5"/>
       <c r="S179" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T179" s="17">
         <v>60</v>
@@ -12306,18 +12306,18 @@
         <v>30</v>
       </c>
       <c r="Z179" s="7" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>15</v>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="R180" s="5"/>
       <c r="S180" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T180" s="17">
         <v>60</v>
@@ -12363,18 +12363,18 @@
         <v>30</v>
       </c>
       <c r="Z180" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>622</v>
+        <v>833</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>30</v>
@@ -12389,7 +12389,7 @@
         <v>31</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="L181" s="7" t="s">
         <v>18</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="R182" s="5"/>
       <c r="S182" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="Z182" s="7" t="s">
         <v>27</v>
@@ -12461,13 +12461,13 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="D183" s="7" t="s">
         <v>15</v>
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="L183" s="7" t="s">
         <v>18</v>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="R183" s="5"/>
       <c r="S183" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X183" s="15" t="s">
         <v>30</v>
@@ -12509,13 +12509,13 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>15</v>
@@ -12546,7 +12546,7 @@
       </c>
       <c r="R184" s="5"/>
       <c r="S184" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T184" s="17">
         <v>60</v>
@@ -12561,7 +12561,7 @@
         <v>30</v>
       </c>
       <c r="Z184" s="7" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12620,7 +12620,7 @@
         <v>30</v>
       </c>
       <c r="Z185" s="10" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="R186" s="5"/>
       <c r="S186" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T186" s="17">
         <v>60</v>
@@ -12680,18 +12680,18 @@
         <v>30</v>
       </c>
       <c r="Z186" s="7" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>15</v>
@@ -12722,7 +12722,7 @@
       </c>
       <c r="R187" s="5"/>
       <c r="S187" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T187" s="17">
         <v>60</v>
@@ -12737,7 +12737,7 @@
         <v>30</v>
       </c>
       <c r="Z187" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="R188" s="8"/>
       <c r="S188" s="13" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T188" s="18">
         <v>0</v>
@@ -12801,7 +12801,7 @@
         <v>30</v>
       </c>
       <c r="Z188" s="7" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12858,18 +12858,18 @@
         <v>15</v>
       </c>
       <c r="Z189" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>15</v>
@@ -12884,7 +12884,7 @@
         <v>6</v>
       </c>
       <c r="K190" s="7" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="L190" s="7" t="s">
         <v>18</v>
@@ -12951,7 +12951,7 @@
         <v>30</v>
       </c>
       <c r="Z191" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="R192" s="5"/>
       <c r="S192" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T192" s="17">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>30</v>
       </c>
       <c r="Z192" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13071,18 +13071,18 @@
       <c r="W193" s="18"/>
       <c r="X193" s="13"/>
       <c r="Z193" s="7" t="s">
-        <v>802</v>
+        <v>775</v>
       </c>
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>15</v>
@@ -13112,13 +13112,13 @@
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>15</v>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="R195" s="5"/>
       <c r="S195" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T195" s="17">
         <v>0</v>
@@ -13164,18 +13164,18 @@
         <v>30</v>
       </c>
       <c r="Z195" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>15</v>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="R196" s="5"/>
       <c r="S196" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T196" s="17">
         <v>0</v>
@@ -13224,18 +13224,18 @@
         <v>30</v>
       </c>
       <c r="Z196" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>15</v>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="R197" s="5"/>
       <c r="S197" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T197" s="17">
         <v>0</v>
@@ -13281,18 +13281,18 @@
         <v>30</v>
       </c>
       <c r="Z197" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>15</v>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="R198" s="5"/>
       <c r="S198" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T198" s="17">
         <v>0</v>
@@ -13332,7 +13332,7 @@
         <v>15</v>
       </c>
       <c r="Z198" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="R199" s="5"/>
       <c r="S199" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T199" s="17">
         <v>60</v>
@@ -13392,18 +13392,18 @@
         <v>30</v>
       </c>
       <c r="Z199" s="7" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>15</v>
@@ -13434,7 +13434,7 @@
       </c>
       <c r="R200" s="5"/>
       <c r="S200" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T200" s="17">
         <v>0</v>
@@ -13446,18 +13446,18 @@
         <v>15</v>
       </c>
       <c r="Z200" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="D201" s="7" t="s">
         <v>15</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="R201" s="5"/>
       <c r="S201" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T201" s="17">
         <v>0</v>
@@ -13503,18 +13503,18 @@
         <v>30</v>
       </c>
       <c r="Z201" s="10" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>15</v>
@@ -13529,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="L202" s="7" t="s">
         <v>323</v>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="R202" s="5"/>
       <c r="S202" s="15" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="T202" s="17">
         <v>150</v>
@@ -13557,18 +13557,18 @@
         <v>15</v>
       </c>
       <c r="Z202" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>15</v>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="R203" s="5"/>
       <c r="S203" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T203" s="17">
         <v>60</v>
@@ -13617,18 +13617,18 @@
         <v>30</v>
       </c>
       <c r="Z203" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>15</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="R204" s="5"/>
       <c r="S204" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T204" s="17">
         <v>30</v>
@@ -13674,7 +13674,7 @@
         <v>30</v>
       </c>
       <c r="Z204" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13682,7 +13682,7 @@
         <v>408</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>469</v>
+        <v>834</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>409</v>
@@ -13725,7 +13725,7 @@
         <v>30</v>
       </c>
       <c r="Y205" s="7" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="Z205" s="7" t="s">
         <v>27</v>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="R206" s="5"/>
       <c r="S206" s="15" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
       <c r="T206" s="5"/>
       <c r="U206" s="5"/>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="R207" s="5"/>
       <c r="S207" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T207" s="5"/>
       <c r="U207" s="5"/>
@@ -13846,13 +13846,13 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>15</v>
@@ -13867,10 +13867,10 @@
         <v>1</v>
       </c>
       <c r="K208" s="7" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="M208" s="7" t="s">
         <v>26</v>
@@ -13931,7 +13931,7 @@
       </c>
       <c r="R209" s="5"/>
       <c r="S209" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T209" s="17">
         <v>120</v>
@@ -13946,18 +13946,18 @@
         <v>30</v>
       </c>
       <c r="Z209" s="7" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>15</v>
@@ -13988,7 +13988,7 @@
       </c>
       <c r="R210" s="5"/>
       <c r="S210" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T210" s="5"/>
       <c r="U210" s="5"/>
@@ -14049,7 +14049,7 @@
         <v>15</v>
       </c>
       <c r="Z211" s="7" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="R212" s="5"/>
       <c r="S212" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T212" s="17">
         <v>60</v>
@@ -14109,18 +14109,18 @@
         <v>15</v>
       </c>
       <c r="Z212" s="7" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>15</v>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="R213" s="5"/>
       <c r="S213" s="15" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
       <c r="T213" s="5"/>
       <c r="U213" s="5"/>
@@ -14166,13 +14166,13 @@
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>15</v>
@@ -14187,7 +14187,7 @@
         <v>31</v>
       </c>
       <c r="K214" s="7" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="L214" s="7" t="s">
         <v>323</v>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="R214" s="5"/>
       <c r="S214" s="15" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="T214" s="5"/>
       <c r="U214" s="5"/>
@@ -14212,10 +14212,10 @@
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>31</v>
@@ -14237,10 +14237,10 @@
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>31</v>
@@ -14262,10 +14262,10 @@
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>427</v>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="R217" s="5"/>
       <c r="S217" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T217" s="5"/>
       <c r="U217" s="5"/>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="R218" s="5"/>
       <c r="S218" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T218" s="17">
         <v>30</v>
@@ -14366,18 +14366,18 @@
         <v>30</v>
       </c>
       <c r="Z218" s="7" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>15</v>
@@ -14417,7 +14417,7 @@
         <v>15</v>
       </c>
       <c r="Z219" s="7" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14425,7 +14425,7 @@
         <v>426</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>470</v>
+        <v>835</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>427</v>
@@ -14475,13 +14475,13 @@
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>15</v>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="R221" s="5"/>
       <c r="S221" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14520,7 +14520,7 @@
         <v>432</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>471</v>
+        <v>836</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>433</v>
@@ -14566,13 +14566,13 @@
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>15</v>
@@ -14587,7 +14587,7 @@
         <v>31</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="L223" s="7" t="s">
         <v>18</v>
@@ -14603,7 +14603,7 @@
       </c>
       <c r="R223" s="5"/>
       <c r="S223" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="T223" s="5"/>
       <c r="U223" s="5"/>
@@ -14612,13 +14612,13 @@
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>15</v>
@@ -14636,7 +14636,7 @@
         <v>6</v>
       </c>
       <c r="K224" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="L224" s="7" t="s">
         <v>18</v>
@@ -14652,24 +14652,24 @@
       </c>
       <c r="R224" s="5"/>
       <c r="S224" s="15" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="X224" s="15" t="s">
         <v>30</v>
       </c>
       <c r="Z224" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>619</v>
+        <v>837</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="D225" s="7" t="s">
         <v>30</v>
@@ -14684,7 +14684,7 @@
         <v>31</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="L225" s="7" t="s">
         <v>18</v>
@@ -14752,13 +14752,13 @@
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>15</v>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="R227" s="5"/>
       <c r="S227" s="15" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
       <c r="T227" s="17">
         <v>60</v>
@@ -14804,7 +14804,7 @@
         <v>30</v>
       </c>
       <c r="Z227" s="17" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/SR_SB_VEG_Traits_Dataset.xlsx
+++ b/SR_SB_VEG_Traits_Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/SR---New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D718BD-A5CF-F646-8B86-6B579A051FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06552C-B998-4D43-B878-1B32C60A134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="740" windowWidth="28480" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="740" windowWidth="18420" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2930,9 +2930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10085,6 +10085,9 @@
       <c r="N135" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="O135" s="20">
+        <v>8.9469000000000007E-3</v>
+      </c>
       <c r="R135" s="5"/>
       <c r="Z135" s="7" t="s">
         <v>34</v>
@@ -11445,7 +11448,9 @@
       <c r="N163" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O163" s="5"/>
+      <c r="O163" s="5">
+        <v>2.7023799999999999E-3</v>
+      </c>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
